--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1881450.768689677</v>
+        <v>1878905.582616389</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>40.62363183383273</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.440065804380628</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.787420751036535</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>330.6094361048475</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>298.7129028388748</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>51.54762428144661</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>53.41390541419266</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377013</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>59.44001103519371</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>8.483880264975597e-13</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137047</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>71.60395572454081</v>
+        <v>217.40545032729</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507405</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.985564370803</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>78.91051008678096</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583155</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746445</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>33.26272630933912</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3676,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>18.70843787977262</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514042</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>58.42789677428428</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1526.106027515566</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>1157.143510575154</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>798.8778119684039</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>798.8778119684039</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>387.8919071787963</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.245359491378</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1916.245359491378</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>1526.106027515566</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035243</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="D8" t="n">
-        <v>504.8469194967738</v>
+        <v>1301.680602758764</v>
       </c>
       <c r="E8" t="n">
-        <v>119.0586668985295</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,22 +4805,22 @@
         <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>617.9730006750465</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1166.769932166871</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1794.077600226718</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2341.238804993795</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1956.179462916631</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1603.410807646517</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1603.410807646517</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1646.937527316293</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>2314.481927343303</v>
+        <v>1853.433914230804</v>
       </c>
       <c r="O9" t="n">
-        <v>2473.994240012064</v>
+        <v>2012.946226899564</v>
       </c>
       <c r="P9" t="n">
-        <v>2582.683867539363</v>
+        <v>2436.913995380401</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>379.2980437562643</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>325.3446039439485</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>668.715213793225</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.2980437562643</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.2980437562643</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>379.2980437562643</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>221.3431781811722</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>636.6680198981028</v>
+        <v>734.6461798836004</v>
       </c>
       <c r="C13" t="n">
-        <v>467.7318369701959</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578602</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
         <v>317.6151975578602</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2319.876964645598</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2100.27549966854</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1811.200273012738</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1556.515784806851</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.09861476989</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1039.109063871873</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>818.3164847283425</v>
+        <v>916.2946447138402</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5276,7 +5276,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075813</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>803.2707707770301</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.3345878491232</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>1670.092171589158</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5707,16 +5707,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M21" t="n">
-        <v>691.195150674524</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>960.4603932171079</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>739.6678140735778</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,16 +7023,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232838</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>443.8134186433597</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578602</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2230.509535791388</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1941.434309135586</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.343099994721</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.5505208511906</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7324,7 +7324,7 @@
         <v>194.8007783998286</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8222,7 +8222,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>449.513533492832</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992664</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,13 +8453,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>365.7550693600172</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.17902072732726</v>
+        <v>178.4213158373901</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092653</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>121.5862749664509</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642684188</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788734</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823419</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092865</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>105.8997516911</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762437</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>184.1427240179491</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664513</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069059</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>872562.1463868554</v>
+        <v>872562.1463868553</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
-        <v>544823.9547907544</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907537</v>
+        <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907535</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,16 +26381,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682753</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682748</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682746</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="M4" t="n">
         <v>5677.536566682751</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682765</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328546.1780825959</v>
+        <v>-328546.1780825963</v>
       </c>
       <c r="C6" t="n">
-        <v>261421.7011319484</v>
+        <v>261421.7011319483</v>
       </c>
       <c r="D6" t="n">
-        <v>105617.8950381537</v>
+        <v>105617.8950381538</v>
       </c>
       <c r="E6" t="n">
-        <v>-333028.8029806421</v>
+        <v>-333063.5409060781</v>
       </c>
       <c r="F6" t="n">
-        <v>438023.8884001644</v>
+        <v>437989.1504747284</v>
       </c>
       <c r="G6" t="n">
-        <v>438023.888400164</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="H6" t="n">
-        <v>438023.8884001641</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="I6" t="n">
-        <v>438023.8884001645</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="J6" t="n">
-        <v>261600.669207571</v>
+        <v>261565.9312821355</v>
       </c>
       <c r="K6" t="n">
-        <v>438023.888400164</v>
+        <v>437989.150474728</v>
       </c>
       <c r="L6" t="n">
-        <v>438023.888400164</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="M6" t="n">
-        <v>313815.3776921057</v>
+        <v>313780.6397666698</v>
       </c>
       <c r="N6" t="n">
-        <v>438023.8884001638</v>
+        <v>437989.1504747282</v>
       </c>
       <c r="O6" t="n">
-        <v>438023.8884001643</v>
+        <v>437989.1504747283</v>
       </c>
       <c r="P6" t="n">
-        <v>438023.8884001639</v>
+        <v>437989.1504747284</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>329.1074688446363</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>151.7308230374145</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855544</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>83.17473391594746</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>66.5599889321328</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>355.3284214602648</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>113.8329156844352</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28068,16 +28068,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>266.6561007250664</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>370.9642309107746</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,13 +32540,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32558,31 +32558,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>687.0167715190038</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,16 +33500,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,10 +33518,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,19 +33743,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>510.8679233250724</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.1165249313368</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33992,10 +33992,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,16 +34211,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34942,7 +34942,7 @@
         <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492237</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35173,13 +35173,13 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>554.3403348402269</v>
       </c>
       <c r="N8" t="n">
         <v>633.6441091513602</v>
@@ -35191,7 +35191,7 @@
         <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
@@ -35267,10 +35267,10 @@
         <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.14562800205148</v>
+        <v>201.3879231121144</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>128.8146617507074</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>228.3679864663302</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>544.4205270745593</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37148,16 +37148,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,10 +37166,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>379.5262112417391</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,16 +37859,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
